--- a/non_rolling_pca_analysis.xlsx
+++ b/non_rolling_pca_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="540" windowWidth="27495" windowHeight="12720"/>
+    <workbookView xWindow="390" yWindow="540" windowWidth="27495" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Non-Rolling PCA 1 Months" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,7023 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight - SP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$A$2:$A$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$C$2:$C$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>-0.62047119171931286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6121154326042042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.57190725559428224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56723749290957792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51697501681817837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.63905395290866418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.55233337721082165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59038817795635112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.628399576044675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69293312449612565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62446278416008727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.23515220116522079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35146951797128911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56129346206380781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.53794187994776155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44542465518916258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5766466413549286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.70386512081566377</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.63275772864306346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.70856475857793055</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.68429386805743453</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6506364569471359</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.53259828311041146</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.56533252181483773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63307063195713331</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.55993891416156738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36256604475229198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.349450135625335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70264353843851002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2164926826730294</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61478233603854848</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.66400352715480848</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.5408230207077297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66766977146912243</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.47313065042321922</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.57152014355025693</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65719538915439502</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70379529744968194</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6711333046782646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57952000954784344</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.71082444082224261</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.64097910457212592</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.6542031246521568</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64455989245181688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.6102480623365294</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.59017693274394145</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42319790704032673</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.57359973934441877</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39831571763214901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58584796358117375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.51532705511291843</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.56372810987663313</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.33282603949841461</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57186981541493376</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.49736283985300839</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59544430523158054</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57751197511729979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.68090480118271213</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47503110071255672</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55670841578649388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.56755040090817632</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55309793873369106</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.70152047927581063</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.56768710891927876</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6967628733203063E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49786042281059673</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5861179978072143</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37504438398217738</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.46764706338246881</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60801845002478117</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.53804142630437302</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.65884152844701727</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.5353355253508072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.51953466802096215</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.64445537240971651</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51755324399793101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.27831848318137631</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51393514537390839</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.32394548883569418</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.66203657274389405</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.54771630812825967</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.72986950506534765</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.4030616299776193</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.67792168473951575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.7555353464085951</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.2247061630053577</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.54113621143199397</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.18410827614058101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.50149498482917787</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53909035572268593</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.62910652713357551</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.52838348379315236</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.6926760185112274</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.59902009990711169</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.62558277077271107</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.68734269672925286</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-6.6275910497816379E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.36993747240712588</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.60138237853006782</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.60993481767141944</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.38782488317851382</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.62266054861743236</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.1001645144275374</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.71901227648796806</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.59444995449924853</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.57820269354126186</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.63822980158196385</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.60684671708707028</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.46937089509161661</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.1290575705831989E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.69597367123664056</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.480391946143019</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.70857354150886598</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.45387823958704232</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.70314071368159847</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.48918978171559668</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.7135519509434235</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.65887845323872485</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.63025745931477739</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.51891630406863098</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.68419101911384228</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.58296377723546078</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.69065400944852995</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.68891240650825236</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.29201135686630347</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.44251175864579878</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.59536963303083279</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.18624687698005421</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.60694475729758834</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.48707429261626978</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.3494393568123359</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.48923561130847021</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.535820260524836</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.52975363243354967</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.42463517967991848</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.58000336332602243</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.47081283815201741</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.60187117097078657</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.8924573629243913E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.57022165925095936</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.69487538495942791</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.5971260478758299</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.58394834314837019</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.67758282009139092</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.68659611515767194</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.58204899140912492</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.50799032529621946</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.51820207101595006</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.56195647326552944</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.48953614229128273</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.48272381272345288</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.66717155834440689</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.69215792016887989</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.57731642158193908</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.44737183223930771</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.63389301983916502</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.30131161916300181</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.68860461599693112</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.5288645185780888</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.4543678407218687</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.60347024889500145</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.58763240603216005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.66778555124443828</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.65797997571675781</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.60660720566352444</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.42213457980498797</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.34330742629538152</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.45601315963967382</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.63572724736045727</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.7583606656298838</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.63416039758229137</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.5849086455128234</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.48010251379444191</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.59994159832434013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.51818057484316227</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.55479203002258748</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.57320155697922959</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.64374686008116266</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.42272813133639242</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.55300131494408244</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.46347599930481542</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.61569772636199205</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.31929741624737262</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.2532787252142808</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.65828879402640028</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.57414968904148334</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.6248083494898371</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.41583079698888109</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-8.2165224806057369E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.43437451979915931</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.6916910569291862</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.55842552810902468</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.18970610080801789</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.70727111193958425</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.37765378237976122</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.55661840497010284</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.55540824053481375</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.65353939692760676</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.64357101957420171</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.59682838215935841</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.56361887415390566</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.54527907616405469</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.45359807928378437</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.65005137322548168</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.70951246178099392</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.59147944756154702</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.67705423426293354</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.55725967140397037</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.42042321288495982</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.70194839506756879</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.61136220373798833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-CL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$A$2:$A$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$D$2:$D$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>0.43642740103360789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65834830961821167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.50057470175345975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5560249714276847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.66391170388338661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49713339672897489</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64205680115667174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56794371624205431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46658951286037409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.52470415315349406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52648277322335768</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.62985837970994807</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.60760102783312875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56626792760562672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59199197490395472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70788848983080577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.54499624660112578</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4351625761726381E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61850735175381166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.68963008373601165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34658226130394121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.49424590055755402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.58451157253445263</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64271404190722758</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.58110198775316302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67185685412724339</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.72403715680363845</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.61393345011073064</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.68773120451211611</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.68669433923582945</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.49636723246663872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.30739470868836077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.57335732573614373</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3752065408768045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.56419747196329728</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56280768813908</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.18114426723116181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.36131678882758123</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.5054994742677682</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.53929452036156977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.7026924419556666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.62920080704013015</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42214159254981598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.51584616039399145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47535870221809251</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.54191973217999345</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.64170648139951492</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.48691161978819819</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.70396400432694251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58357550796478941</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.60716193164009047</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.63783152322268366</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6556731233231855</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.60839531900354749</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.67431744681888295</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5551056551704141</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57820050719270799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2313243516765135</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.64979065094262134</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.6164929052884115</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.53263093202276812</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58478582990215122</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.3762445676389847E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.56486542596938749</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.7058657360248477</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.53542437332721715</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.60977603214393528</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.67433063437021612</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.61308847548199374</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.6399067126374941</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.59252883030111037</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7180548896564718</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58463857585660639</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.54151624915389229</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.66540039193187672</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53464311897110306</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.67800607757877318</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.69416804257392095</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.67307330039596613</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.44917476267832618</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.59987264368012128</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.65430866424311329</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67199544758608321</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.46169767131648459</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.62449726079773471</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.69524357941411286</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.59211549122656149</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.69844708947236034</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.64355807734286608</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.561365489479005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.54420750906761983</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.58157789975685004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.71784876909572159</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.54190136485203622</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51634591630106674</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.70961001763739351</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.70512089484465612</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.66239236192778139</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.53494106143245368</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.62706825731332305</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.69467154795778763</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.57077194733870551</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.66115843007858588</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.56786459540622813</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.54622603509952572</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.57620988767986825</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.71878070559076124</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.6403090789247079</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.60865423317110146</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.70391139030765992</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.68909926108689679</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.5556050654816399</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.693690999800749</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.72069408985435168</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.3072871485794685E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.67583233628418415</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.31001756289857141</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.14169889517859921</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.40780492832140031</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.5569854041149308</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.6427820684677128</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.57064560241481666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.10658230066141609</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.7147342799747648</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.66017875677487037</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.66119065194118676</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.6577205597211383</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.67158835317055077</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.5804878630400091</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.50368608063369813</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.71554162571807178</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.59923605481048414</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.60316014003867846</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.59788201423540843</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.61317568949774648</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.68059786735389183</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.62618024934034822</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.54399904442379332</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.70792428955665931</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.60394908605281306</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.67652935178389673</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.28842287409044709</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.60050784496588949</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.19129908997113099</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.23662284414441109</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.54746065795055643</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.56047071115229374</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.62264568092057648</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.67714823682517067</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.60967912120349621</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.60146548069921368</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.66689739467598852</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.71185136193532095</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.60859280685401151</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.60873475001135624</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.56020343450999488</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.58479302151045254</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.64187577991630662</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.51226981041463193</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.62796631323103003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.52383027014555739</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.6137067231672636</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.26159841072773488</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.33921624912695852</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.51198300753500992</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.70561182853393078</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.64526259216232928</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.67665030097444889</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.4419064496226135</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.41453601292739561</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.41818461644428989</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.47818241889693103</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.71188547671438662</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.61785361819271123</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.57733356794517965</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.53875692995430491</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.57277830898822912</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.55069243897043663</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.62045184029876288</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.63723950049710198</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.57335283790122582</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.55981300676663415</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.7321770100264805</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.66130903851739353</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.28594244573920002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.55799101145572172</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.53600626082699243</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.67114347860320078</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.71069527465461046</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.60693941249153549</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.70031835329306102</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.47778882036418152</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.68474550778071253</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.70694134570224676</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.60867503556662095</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.60902510505490282</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.59101506170167672</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.56802508467042767</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.41360381758583697</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.57297315363381307</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.49968206714788221</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.58998378179062461</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.68401259479150267</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.2815372884307063</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.64424850558077851</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.5738868346525674</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.19126839144889421</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.62061547285146179</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.61226401323106516</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.59831031403802015</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.55930231642867745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-TY0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$A$2:$A$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Months'!$E$2:$E$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="211"/>
+                <c:pt idx="0">
+                  <c:v>-0.65157242411988714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.43805501982126782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.64988234239980003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60751778392611611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.54033145515739012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.58691433031450335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.53168684816097378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57348211350533407</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.62242123944768424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.49449897536750442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57694204275479455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.74025797111298342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.71224305466122673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60356464741538085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60013668063832248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.54817037726848827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60865239850407671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.70643168632624298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.46590375901999159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1494868907552114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64157824019244991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5765355068626129</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.61211542245000128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51702785235783022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51141182503215454</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48484717176633019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.58678450794169945</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70779256957569847</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.18253177320927999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69396095193497953</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61291292189706259</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.68162145579226852</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.61544442259010212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64299076816827816</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.67663032762382569</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.59717018653633214</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73162898720833125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.61165542374693216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54226411357072246</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61099752768865789</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.085362779525519E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43960451763143282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62754660985050315</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56430956384707753</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63374395984501708</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.59834287154683907</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.63962201588636813</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.65871117611533492</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58802999047596416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56233601171490866</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60480775047590252</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.52476810699427023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.67773120245671059</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55029087765640916</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54582615038949345</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58077860753053345</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57633678702492208</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69487962702022865</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59339494715019392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55678742579331497</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.62784618552757476</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.59338706028543797</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7064542596215404</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.59888095387254814</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.7073803482794413</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.68224316767997761</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.53351558859068093</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6360974025990761</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.63673286811732732</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.46992867921732379</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59951731321318313</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.22433237803319969</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.6096011900560353</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.66094166204488003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.37672216737160352</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.66805342223812381</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.68032828890607222</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.50398551072286868</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.66485461008936741</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.599958005965741</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.58323207831408874</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.19791583431362261</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.62125955997744142</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.57206420064610897</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.19791288887631861</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68274702898720974</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59713553379995399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.69157487365008563</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.57821776285231519</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.62789360212442458</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5550343814506884</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.6185289326854666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-6.9950540292347999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.58950642971792433</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.58483595275217926</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.15496335089825661</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.70598302199214191</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.65144656370938203</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.59344527598342023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.48452545739327679</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.60582447989950283</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.53526930168525477</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.74352982481237118</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.40068834216097499</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.59014097483168659</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.57763639992782934</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.27571183805396321</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.47089419767845669</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.63971164385509927</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.70996863732227766</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.2018981359866541</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.6786210940518026</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.12929165893057551</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.52401772153084225</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.708247802429255</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.55131117410923947</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.62827758514789012</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.73878319347621169</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.66065927331330099</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.64845441549478189</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.34454878003024569</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.57837429997882428</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.71528823030886601</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.1206424684261848</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.6920212255157252</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.60581372157272162</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.46145277698248138</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.71713400749151779</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.54281848020513779</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.71348368281848173</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.60489033532973546</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.63369130279876329</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.59084219033479568</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.60157974199375308</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.6661085031638363</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.44764119725940821</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.62147692376089225</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.58465043677419226</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.70625469505497784</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.55685973168927816</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.24383649347943639</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.74850031973914222</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.54625512415783928</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.71013110063791374</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.68745574714260871</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.6012535235622023</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.65407829144979535</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.58632667483727186</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.47505282603046428</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.62341457679388756</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.63656656851973936</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.33185836845057048</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.1191010161934781</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.54435332718500085</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.65521023179393079</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.53324642648815723</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.7531456898569131</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.33737096197591171</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.67666975869099055</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.63182922911556927</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.60118674867119049</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.52730656483695937</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.69687066881444015</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.6723055018992572</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.60819495067987606</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.56913473270032366</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.68247798367888235</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.57809719634904744</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.63290564600533661</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.50303975470300344</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.65035545412306017</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.6551514715409209</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.51256281984883378</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.50825877767748506</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.63101096914308752</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.63399272381442062</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.58597353509281591</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.53134529055637225</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.66056070186374227</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.5367637885292933</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.67561566096340142</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.55455000424449907</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.60163609097729109</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.70605965961031192</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.69634243112419381</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.59916455645188915</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.56772512253911345</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.61371913723134519</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.69868526706678002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.66553987567513884</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.17640205725864111</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.67814362246589133</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.70365842913330623</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.2279871497891069E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.69777669904650186</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.56503484198888398</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.58499819075599369</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.50023370523051858</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.6440094912675155</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.56169177265112757</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.65776256846091741</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.59547448838863604</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.57129287816028074</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.70581156648977539</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.28554496954841901</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.56639735532993474</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.71064334676346974</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.55163220852674566</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.6696096625420499</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.38638480660837299</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.55983673930722511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="122092544"/>
+        <c:axId val="121570048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="122092544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121570048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121570048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122092544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8929012602972271E-2"/>
+          <c:y val="1.4385299041348193E-2"/>
+          <c:w val="0.89913297411452053"/>
+          <c:h val="0.96057693853514647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight - SP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$A$2:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$C$2:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>-0.42467589040933812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59166711131230099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.56816882969371285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66391381902323576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44102677084491182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52150110003783567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7884673796847413E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42069307579137089</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6936811350674007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1270011285088983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71613646479568172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68512900171725089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70551295169910377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.69778608494039007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59317322347776846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46930723185250339</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58265833890825247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46529556914384629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.37287168231072532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71902068873872838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70900553458124382</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50384544879175708</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58106208740159959</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36895794731847809</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.70343426575239421</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.55929277297017421</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30335543339337367</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68786324089896633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.67553751841160437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.47331105218218661</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.6616743160199321</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.42446953244399799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.5996498749517728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67622925929155275</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.59694716552013738</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.72360357498177086</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.56911463795540118</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69644453034240661</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61058771455932859</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69063895781006401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.38448573850336221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.62397919423935411</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.55899092236965375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57380710093603726</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.42081024430404879</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.2456404496693477</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.53624378385637039</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57649662732309648</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57530277835916277</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1541556750119423</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.59875553099882173</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58531188660993372</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.61403167191240438</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.68956975688919164</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60415172502098691</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28025963879306048</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57100637162745194</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.67009052395907553</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59414708822029194</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53087652767798088</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.54810980367625672</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57372927738397972</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.31484045174749092</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.66954407941025174</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43341180376753791</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56140934373311391</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38770963341486808</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.54458379901060527</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.58475033210556127</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.52031227866853669</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.61136220373798833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-CL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$A$2:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$D$2:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>-0.57095116166566118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.58410619778744566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58002811782719965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65877194412512696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.62420844543377418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59982100542707573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.70338845645768666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7472081743220641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.055165344481364E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70696861225606922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.39461838325432202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.34506637954389913</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22459421188343101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.47193684594591712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55867884757224151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.63712777106726393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58460280586661484</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62934068193295056</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.69094898055752818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.084925124590057E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.19423325245121689</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60450474416571864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.66022463923010555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.66628385238147525</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53038635337091988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58746423609242837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.62799679446785961</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66924594848534191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46951479082828562</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.61233687798127923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.2717590229971556</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.67274486239347797</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.54565223514922512</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.35593478317656302</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48115046540804851</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.3182082226166238E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.44238886458063992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7024156019167116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56908938538803266</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45687609279622021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62655247392036362</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.63171388375391291</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.46003572499500889</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.59678657636235277</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.65947414223788192</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67834650101588412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61746753436437363</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.60733690774424509</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57277914609586411</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.6965500272810754</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.59281655973353309</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59165796990624964</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.56796259607298483</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.6174541431399776</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.57444358624183001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.72125625985107222</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.59385115719528869</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2549398479570435</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.51551033024889592</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.56889865429583097</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.45023826028253022</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62023142376407214</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.65411749091177862</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.68912951780766318</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.66838344129987126</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.57887895230462005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.70076753044848827</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.62219440607141974</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.58950355435731894</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.61777589196411442</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55930231642867745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-TY0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$A$2:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 3 Months'!$E$2:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>-0.70261309345732192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55565275046349827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.58373929411537162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.35388976609049161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.64487146319810129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60683718088773975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.70403357161271674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51448739557688283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71456761815101366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.69574858579963605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5756951410144856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64150404886827395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67216732661836431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.53886008675924668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57967531621101942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61140733187115182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.564578444039052</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.62243902464359713</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.61931915423090378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68902515390495278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67792668893869845</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61702007910032552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47588893277525712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64802458376687821</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47314960628038971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.5848738029828936</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71665578011260833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.28098758381096778</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.56851114537162994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.63326155397776296</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69880908189518154</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60600327239211671</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58539189074241393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.64499954961461103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64198778120388866</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68389689707264834</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.69310938628757945</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14689226780238751</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55074487221206814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56060865653884429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67794005215195574</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.4599864500492965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68985236133294492</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.56088429572335341</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.62290656924483978</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.6924642908090981</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.5754793204637183</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.54662008669344875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.58390989288581219</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.700752515055312</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53857250264381062</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.55439231780349851</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54807261868341217</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.37847580041933582</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55228186587990657</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.63343819153033831</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56682671660629103</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69712578751893195</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.61744500724033935</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.62811180016057877</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.7048837862312739</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.53492774955880507</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.687754169763234</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.27714839601350011</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.60449796008846157</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.59137019484233344</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.59883729712371425</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56240786526204456</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55727247240692224</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58959993213593376</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55983673930722511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="121637120"/>
+        <c:axId val="122036224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121637120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122036224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122036224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121637120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight - SP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-0.6782613775015347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55272685865573723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65375637439740975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.42812612721605098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59889423731644387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.72551357732355348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60760500464159006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70501654927517377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57536510799753315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57236981383462404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70745258920142351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59006099112235022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6668129994785108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0980531970835963E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.27885709902540629</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.61851635431558549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.60665076492152437</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.58937522787055796</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55976851508133874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60025857021379636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18812031514584371</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71077549218791025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60627754199652051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57373706612509257</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21244498603862719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.67069673774798833</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.59315886877377899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6500826894301901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26202936441029567</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5388385667593617</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25969110486780661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39019283354574252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51642114357334457</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.60492072305491673</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55543072097382995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61136220373798833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-CL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.58483996378325265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.59184926477841227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.48593465550333159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.59488133673518673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.48165589373027079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6861094699990733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57637641676063356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0181000639250058E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64216077726954734</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56600490311008489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1123604750141203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.64343125304566873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1605110228578058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71127348114904521</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.65695320361545306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.43696170982760818</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.53186594530027065</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52951885075682348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66023369245544861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56749519978539242</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.68722338812044881</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59314860655417201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54886042530839241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.61212890508930484</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71630561444913099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47392015507965513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.57038934191921575</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44433110434131429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6312006177233459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68399254863285897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74794204842296808</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.66834029523955873</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61369043884755525</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31995714348488291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.59301443882573524</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55930231642867745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-TY0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 6 Months'!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-0.44488618831306082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58669196986307315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58006043953678821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.68031185084426027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63979160087019671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.3701436636007342E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54644888556631355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70464364921896183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.50654173434728755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59332221083173764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69777213880091482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48767227659545148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.72773390416251205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.70106420560037819</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.70046499311709254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65307119335390262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59084132019517643</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61012017460964285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50075011819297388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56359457689497561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.70166570519705485</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.37811761430522922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.57548221136795175</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54417275061173331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66466036034632037</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.57058353690189989</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56817123740996844</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61641087483758683</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.73001807674358532</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.49173894739733898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61085450170510536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63330150987396527</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.59723801598482817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.7291764842284143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.58294990311577344</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55983673930722511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124712448"/>
+        <c:axId val="124713984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124712448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124713984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124713984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124712448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight - SP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.70804208471832741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67731802154458898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57993277079320982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.55883049174970634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67082436670195256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56409569081365618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50380960515228446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55080784817924899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.5786096320540659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.65352437103052896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58672827870851862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54608043595733669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64568637652562078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1406248851135749E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.59597453749023288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.72758171162742502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.67825772576839705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.5893440276545161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53398535101824773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5698713134490978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-CL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.67184552718118629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40697417689204168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.57106284018301157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5623040974242719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5065975637856408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46905933692155199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.67114572470142364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58952458154048815</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51736927498492302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35439539476495557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65101021908128753</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6202003854865733</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46651835192102209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70714632236163422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.54844054222877592</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.66257686202007204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.72659902668666354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49374191483934771</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55208008494402494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.57514990794575083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight-TY0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Rolling PCA 1 Year'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.21748561762645061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61287218653971276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58100362642777237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.60952652404194563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54162124903420983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67954351593711593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54381917764207244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.59082271634023831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6305076740181943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66881223122677902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48159694934195002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56315862712645237</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.60452438370185524</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7069752302998753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58653842355220787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.17781100871695499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1096371828052652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.639447056916151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.64036491526794048</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58689800604346443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="126055168"/>
+        <c:axId val="126056704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="126055168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126056704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126056704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126055168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,6 +11025,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5247,6 +12265,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5891,6 +12910,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5898,7 +12918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6263,5 +13285,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>